--- a/biology/Botanique/Dictyoptérène/Dictyoptérène.xlsx
+++ b/biology/Botanique/Dictyoptérène/Dictyoptérène.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Dictyopt%C3%A9r%C3%A8ne</t>
+          <t>Dictyoptérène</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les dictyoptérènes forment un groupe de composés organiques naturellement présents dans les milieux marins et d'eau douce. Ce sont des phéromones de plusieurs espèces d'algues brunes (Phaeophyceae).
-Le dictyoptérène A, un alcène très volatil, est responsable de l'« odeur marine » caractéristique du varech[1]. Les dictyoptérènes B et A sont les constituants majeurs de l'huile essentielle d'algues du genre Dictyopteris[2].
+Le dictyoptérène A, un alcène très volatil, est responsable de l'« odeur marine » caractéristique du varech. Les dictyoptérènes B et A sont les constituants majeurs de l'huile essentielle d'algues du genre Dictyopteris.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Dictyopt%C3%A9r%C3%A8ne</t>
+          <t>Dictyoptérène</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Liste</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le tableau ci-dessous donne la description de six alcènes alicycliques de formule brute C11H16 ou C11H18. Les dictyoptérènes A, B, C et D sont des dérivés du divinylcyclopropane. Les paires de dictyoptérènes A, C et B, D sont des paires de diastéréoisomères.
 </t>
